--- a/StructureDefinition-cdm-location.xlsx
+++ b/StructureDefinition-cdm-location.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$75</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2475" uniqueCount="312">
   <si>
     <t>Path</t>
   </si>
@@ -360,7 +360,7 @@
     <t>Organization label locations in registries, need to keep track of those.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:type}
+    <t xml:space="preserve">value:type}
 </t>
   </si>
   <si>
@@ -718,7 +718,7 @@
     <t>Indicates the type of function performed at the location.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
+    <t>http://ibm.com/fhir/cdm/ValueSet/service-delivery-location-type</t>
   </si>
   <si>
     <t>.code</t>
@@ -727,427 +727,43 @@
     <t>Location.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint
+    <t xml:space="preserve">ContactPoint {http://ibm.com/fhir/cdm/StructureDefinition/cdm-contact-point}
 </t>
   </si>
   <si>
-    <t>Contact details of the location</t>
-  </si>
-  <si>
-    <t>The contact details of communication devices available at the location. This can include phone numbers, fax numbers, mobile numbers, email addresses and web sites.</t>
-  </si>
-  <si>
-    <t>.telecom</t>
-  </si>
-  <si>
-    <t>Location.telecom.id</t>
-  </si>
-  <si>
-    <t>Location.telecom.extension</t>
-  </si>
-  <si>
-    <t>contactPointCountry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {contactpoint-country}
+    <t>Details of a Technology mediated contact point (phone, fax, email, etc.)</t>
+  </si>
+  <si>
+    <t>Details for all kinds of technology mediated contact points for a person or organization, including telephone, email, etc.</t>
+  </si>
+  <si>
+    <t>cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}
+ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+  </si>
+  <si>
+    <t>TEL</t>
+  </si>
+  <si>
+    <t>Location.address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address {http://ibm.com/fhir/cdm/StructureDefinition/cdm-address}
 </t>
   </si>
   <si>
-    <t>The country code as defined by the ITU. This extension is used when a system wishes to designate specific parts of a phone number</t>
-  </si>
-  <si>
-    <t>The country code as defined by the ITU. This extension is used when a system wishes to designate specific parts of a phone number (and potentially place constraints on which components must be present and how they're filled in).</t>
-  </si>
-  <si>
-    <t>The ContactPoint.value element SHOULD still be populated even if the extension is present.</t>
-  </si>
-  <si>
-    <t>contactPointExt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {contactpoint-extension}
-</t>
-  </si>
-  <si>
-    <t>The number that may be dialed within a private phone network or after successfully connecting to a private phone network.</t>
-  </si>
-  <si>
-    <t>The number that may be dialed within a private phone network or after successfully connecting to a private phone network. This extension is used when a system wishes to designate specific parts of a phone number (and potentially place constraints on which components must be present and how they're filled in).</t>
-  </si>
-  <si>
-    <t>Location.telecom.system</t>
-  </si>
-  <si>
-    <t>phone | fax | email | pager | url | sms | other</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpt-2
-</t>
-  </si>
-  <si>
-    <t>./scheme</t>
-  </si>
-  <si>
-    <t>Location.telecom.value</t>
-  </si>
-  <si>
-    <t>The actual contact point details</t>
-  </si>
-  <si>
-    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
-  </si>
-  <si>
-    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
-  </si>
-  <si>
-    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
-  </si>
-  <si>
-    <t>ContactPoint.value</t>
-  </si>
-  <si>
-    <t>./url</t>
-  </si>
-  <si>
-    <t>Location.telecom.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | mobile - purpose of this contact point</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for the contact point.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
-  </si>
-  <si>
-    <t>Use of contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.use</t>
-  </si>
-  <si>
-    <t>unique(./use)</t>
-  </si>
-  <si>
-    <t>Location.telecom.rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Specify preferred order of use (1 = highest)</t>
-  </si>
-  <si>
-    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
-  </si>
-  <si>
-    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
-  </si>
-  <si>
-    <t>ContactPoint.rank</t>
-  </si>
-  <si>
-    <t>Location.telecom.period</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use.</t>
-  </si>
-  <si>
-    <t>ContactPoint.period</t>
-  </si>
-  <si>
-    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
-  </si>
-  <si>
-    <t>Location.address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address
-</t>
-  </si>
-  <si>
-    <t>Physical location</t>
-  </si>
-  <si>
-    <t>Physical location.</t>
-  </si>
-  <si>
-    <t>Additional addresses should be recorded using another instance of the Location resource, or via the Organization.</t>
+    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats)</t>
+  </si>
+  <si>
+    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
+  </si>
+  <si>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t>If locations can be visited, we need to keep track of their address.</t>
   </si>
   <si>
-    <t>.addr</t>
-  </si>
-  <si>
-    <t>Location.address.id</t>
-  </si>
-  <si>
-    <t>Location.address.extension</t>
-  </si>
-  <si>
-    <t>countyCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/county-code}
-</t>
-  </si>
-  <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
-    <t>regionCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/region-code}
-</t>
-  </si>
-  <si>
-    <t>Location.address.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | billing - purpose of this address</t>
-  </si>
-  <si>
-    <t>The purpose of this address.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Allows an appropriate address to be chosen from a list of many.</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>The use of an address.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Address.use</t>
-  </si>
-  <si>
-    <t>Location.address.type</t>
-  </si>
-  <si>
-    <t>postal | physical | both</t>
-  </si>
-  <si>
-    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
-  </si>
-  <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
-  </si>
-  <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>The type of an address (physical / postal).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
-  </si>
-  <si>
-    <t>Address.type</t>
-  </si>
-  <si>
-    <t>Location.address.text</t>
-  </si>
-  <si>
-    <t>Text representation of the address</t>
-  </si>
-  <si>
-    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
-  </si>
-  <si>
-    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
-  </si>
-  <si>
-    <t>A renderable, unencoded form.</t>
-  </si>
-  <si>
-    <t>137 Nowhere Street, Erewhon 9132</t>
-  </si>
-  <si>
-    <t>Address.text</t>
-  </si>
-  <si>
-    <t>./formatted</t>
-  </si>
-  <si>
-    <t>Location.address.line</t>
-  </si>
-  <si>
-    <t>Street name, number, direction &amp; P.O. Box etc.</t>
-  </si>
-  <si>
-    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
-  </si>
-  <si>
-    <t>137 Nowhere Street</t>
-  </si>
-  <si>
-    <t>Address.line</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = AL]</t>
-  </si>
-  <si>
-    <t>Location.address.city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Municpality
-</t>
-  </si>
-  <si>
-    <t>Name of city, town etc.</t>
-  </si>
-  <si>
-    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
-  </si>
-  <si>
-    <t>Erewhon</t>
-  </si>
-  <si>
-    <t>Address.city</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CTY]</t>
-  </si>
-  <si>
-    <t>Location.address.district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">County
-</t>
-  </si>
-  <si>
-    <t>District name (aka county)</t>
-  </si>
-  <si>
-    <t>The name of the administrative area (county).</t>
-  </si>
-  <si>
-    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
-  </si>
-  <si>
-    <t>Madison</t>
-  </si>
-  <si>
-    <t>Address.district</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CNT | CPA]</t>
-  </si>
-  <si>
-    <t>Location.address.state</t>
-  </si>
-  <si>
-    <t>Province
-Territory</t>
-  </si>
-  <si>
-    <t>Sub-unit of country (abbreviations ok)</t>
-  </si>
-  <si>
-    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
-  </si>
-  <si>
-    <t>Address.state</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = STA]</t>
-  </si>
-  <si>
-    <t>Location.address.postalCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zip
-</t>
-  </si>
-  <si>
-    <t>Postal code for area</t>
-  </si>
-  <si>
-    <t>A postal code designating a region defined by the postal service.</t>
-  </si>
-  <si>
-    <t>9132</t>
-  </si>
-  <si>
-    <t>Address.postalCode</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = ZIP]</t>
-  </si>
-  <si>
-    <t>Location.address.country</t>
-  </si>
-  <si>
-    <t>Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
-  </si>
-  <si>
-    <t>Country - a nation as commonly understood or generally accepted.</t>
-  </si>
-  <si>
-    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
-  </si>
-  <si>
-    <t>Address.country</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CNT]</t>
-  </si>
-  <si>
-    <t>Location.address.period</t>
-  </si>
-  <si>
-    <t>Time period when address was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when address was/is in use.</t>
-  </si>
-  <si>
-    <t>Allows addresses to be placed in historical context.</t>
-  </si>
-  <si>
-    <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
-  &lt;start value="2010-03-23"/&gt;
-  &lt;end value="2010-07-01"/&gt;
-&lt;/valuePeriod&gt;</t>
-  </si>
-  <si>
-    <t>Address.period</t>
+    <t>AD</t>
   </si>
   <si>
     <t>Location.physicalType</t>
@@ -1533,7 +1149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK98"/>
+  <dimension ref="A1:AK75"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1543,7 +1159,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="42.9765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.8046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1552,7 +1168,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="122.92578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="114.49609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1566,7 +1182,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="67.796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.5859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -7119,9 +6735,7 @@
       <c r="W53" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="X53" t="s" s="2">
-        <v>220</v>
-      </c>
+      <c r="X53" s="2"/>
       <c r="Y53" t="s" s="2">
         <v>221</v>
       </c>
@@ -7253,13 +6867,13 @@
         <v>40</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>59</v>
+        <v>227</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>38</v>
@@ -7267,7 +6881,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7290,16 +6904,20 @@
         <v>38</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>48</v>
+        <v>230</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>115</v>
+        <v>231</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>38</v>
       </c>
@@ -7347,7 +6965,7 @@
         <v>38</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>117</v>
+        <v>229</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>39</v>
@@ -7356,13 +6974,13 @@
         <v>46</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>118</v>
+        <v>235</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>38</v>
@@ -7370,18 +6988,18 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>38</v>
@@ -7390,21 +7008,21 @@
         <v>38</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>94</v>
+        <v>237</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>38</v>
       </c>
@@ -7428,58 +7046,56 @@
         <v>38</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>38</v>
+        <v>241</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>123</v>
+        <v>236</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>118</v>
+        <v>243</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>38</v>
+        <v>217</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
         <v>38</v>
       </c>
@@ -7500,18 +7116,18 @@
         <v>38</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>38</v>
       </c>
@@ -7559,22 +7175,22 @@
         <v>38</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>123</v>
+        <v>244</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>118</v>
+        <v>249</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>38</v>
@@ -7582,11 +7198,9 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
         <v>38</v>
       </c>
@@ -7607,17 +7221,15 @@
         <v>38</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>236</v>
+        <v>48</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>38</v>
@@ -7666,22 +7278,22 @@
         <v>38</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>38</v>
@@ -7689,18 +7301,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>38</v>
@@ -7709,18 +7321,20 @@
         <v>38</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>240</v>
+        <v>94</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>38</v>
@@ -7745,13 +7359,13 @@
         <v>38</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>242</v>
+        <v>38</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>243</v>
+        <v>38</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>38</v>
@@ -7769,22 +7383,22 @@
         <v>38</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>244</v>
+        <v>123</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>245</v>
+        <v>38</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>246</v>
+        <v>118</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>38</v>
@@ -7792,42 +7406,42 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>38</v>
+        <v>253</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>47</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>250</v>
+        <v>96</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>251</v>
+        <v>102</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>38</v>
@@ -7876,22 +7490,22 @@
         <v>38</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>253</v>
+        <v>60</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>38</v>
@@ -7899,7 +7513,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7907,7 +7521,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>46</v>
@@ -7916,26 +7530,22 @@
         <v>38</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>38</v>
       </c>
@@ -7959,13 +7569,13 @@
         <v>38</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>260</v>
+        <v>38</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>38</v>
@@ -7983,10 +7593,10 @@
         <v>38</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>46</v>
@@ -7998,7 +7608,7 @@
         <v>59</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>38</v>
@@ -8006,7 +7616,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8014,7 +7624,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>46</v>
@@ -8026,20 +7636,18 @@
         <v>38</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="K62" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>267</v>
-      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>38</v>
@@ -8088,10 +7696,10 @@
         <v>38</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>46</v>
@@ -8103,7 +7711,7 @@
         <v>59</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>118</v>
+        <v>261</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>38</v>
@@ -8111,7 +7719,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8131,16 +7739,16 @@
         <v>38</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>159</v>
+        <v>258</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8191,7 +7799,7 @@
         <v>38</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>39</v>
@@ -8206,7 +7814,7 @@
         <v>59</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>38</v>
@@ -8214,7 +7822,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8234,22 +7842,22 @@
         <v>38</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>275</v>
+        <v>165</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>38</v>
@@ -8298,7 +7906,7 @@
         <v>38</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>39</v>
@@ -8313,7 +7921,7 @@
         <v>59</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>38</v>
@@ -8321,7 +7929,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8344,16 +7952,18 @@
         <v>38</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>48</v>
+        <v>275</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>115</v>
+        <v>276</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>116</v>
+        <v>277</v>
       </c>
       <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+      <c r="N65" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>38</v>
       </c>
@@ -8401,7 +8011,7 @@
         <v>38</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>117</v>
+        <v>274</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>39</v>
@@ -8413,10 +8023,10 @@
         <v>38</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>118</v>
+        <v>279</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>38</v>
@@ -8424,11 +8034,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -8447,16 +8057,16 @@
         <v>38</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>93</v>
+        <v>245</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>94</v>
+        <v>281</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>120</v>
+        <v>282</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>96</v>
+        <v>283</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -8494,19 +8104,19 @@
         <v>38</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>123</v>
+        <v>280</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>39</v>
@@ -8518,10 +8128,10 @@
         <v>38</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>118</v>
+        <v>284</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>38</v>
@@ -8529,11 +8139,9 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
         <v>38</v>
       </c>
@@ -8554,13 +8162,13 @@
         <v>38</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>284</v>
+        <v>48</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>285</v>
+        <v>115</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>286</v>
+        <v>116</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8611,22 +8219,22 @@
         <v>38</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>38</v>
@@ -8634,20 +8242,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>38</v>
@@ -8659,15 +8265,17 @@
         <v>38</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>288</v>
+        <v>93</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>285</v>
+        <v>94</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>38</v>
@@ -8731,7 +8339,7 @@
         <v>98</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>38</v>
@@ -8739,18 +8347,18 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>38</v>
+        <v>253</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>38</v>
@@ -8762,19 +8370,19 @@
         <v>47</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>292</v>
+        <v>96</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>293</v>
+        <v>102</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>38</v>
@@ -8787,7 +8395,7 @@
         <v>38</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>294</v>
+        <v>38</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>38</v>
@@ -8799,13 +8407,13 @@
         <v>38</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>296</v>
+        <v>38</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>38</v>
@@ -8823,22 +8431,22 @@
         <v>38</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>262</v>
+        <v>60</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>38</v>
@@ -8846,7 +8454,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8857,7 +8465,7 @@
         <v>39</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>38</v>
@@ -8866,20 +8474,18 @@
         <v>38</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>68</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>38</v>
@@ -8892,7 +8498,7 @@
         <v>38</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>302</v>
+        <v>38</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>38</v>
@@ -8907,10 +8513,10 @@
         <v>129</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>38</v>
@@ -8928,13 +8534,13 @@
         <v>38</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>38</v>
@@ -8943,7 +8549,7 @@
         <v>59</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>38</v>
@@ -8951,7 +8557,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8971,23 +8577,19 @@
         <v>38</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>48</v>
+        <v>294</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>38</v>
       </c>
@@ -8999,7 +8601,7 @@
         <v>38</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>311</v>
+        <v>38</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>38</v>
@@ -9035,7 +8637,7 @@
         <v>38</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>39</v>
@@ -9050,7 +8652,7 @@
         <v>59</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>38</v>
@@ -9058,7 +8660,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9069,7 +8671,7 @@
         <v>39</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>38</v>
@@ -9078,16 +8680,16 @@
         <v>38</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>48</v>
+        <v>298</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9102,7 +8704,7 @@
         <v>38</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>317</v>
+        <v>38</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>38</v>
@@ -9138,13 +8740,13 @@
         <v>38</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>38</v>
@@ -9153,7 +8755,7 @@
         <v>59</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>38</v>
@@ -9161,11 +8763,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>321</v>
+        <v>38</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9181,16 +8783,16 @@
         <v>38</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>48</v>
+        <v>298</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9205,7 +8807,7 @@
         <v>38</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>324</v>
+        <v>38</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>38</v>
@@ -9241,7 +8843,7 @@
         <v>38</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>39</v>
@@ -9256,7 +8858,7 @@
         <v>59</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>38</v>
@@ -9264,11 +8866,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>328</v>
+        <v>38</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9284,20 +8886,18 @@
         <v>38</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J74" t="s" s="2">
         <v>48</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>38</v>
@@ -9310,7 +8910,7 @@
         <v>38</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>332</v>
+        <v>38</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>38</v>
@@ -9346,7 +8946,7 @@
         <v>38</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>39</v>
@@ -9361,7 +8961,7 @@
         <v>59</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>334</v>
+        <v>118</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>38</v>
@@ -9369,18 +8969,18 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>336</v>
+        <v>38</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>38</v>
@@ -9389,19 +8989,21 @@
         <v>38</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+      <c r="N75" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>38</v>
       </c>
@@ -9449,13 +9051,13 @@
         <v>38</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>38</v>
@@ -9464,2413 +9066,14 @@
         <v>59</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>340</v>
+        <v>118</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-      <c r="O86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
-      <c r="O93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
-      <c r="O96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
-      <c r="O97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M98" s="2"/>
-      <c r="N98" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AK98" t="s" s="2">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK98">
+  <autoFilter ref="A1:AK75">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11880,7 +9083,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI97">
+  <conditionalFormatting sqref="A2:AI74">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-cdm-location.xlsx
+++ b/StructureDefinition-cdm-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-location.xlsx
+++ b/StructureDefinition-cdm-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-location.xlsx
+++ b/StructureDefinition-cdm-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-location.xlsx
+++ b/StructureDefinition-cdm-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-location.xlsx
+++ b/StructureDefinition-cdm-location.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>IBM Health Data Connect Common Data Model definition of what fields we currently define for a location</t>
+    <t>Health Data Connect Common Data Model definition of what fields we currently define for a location</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-cdm-location.xlsx
+++ b/StructureDefinition-cdm-location.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-location.xlsx
+++ b/StructureDefinition-cdm-location.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1417,40 +1417,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.9765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.98046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="114.49609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="59.5859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="38.3125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="38.31640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-cdm-location.xlsx
+++ b/StructureDefinition-cdm-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-location.xlsx
+++ b/StructureDefinition-cdm-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-location.xlsx
+++ b/StructureDefinition-cdm-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-location.xlsx
+++ b/StructureDefinition-cdm-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-location.xlsx
+++ b/StructureDefinition-cdm-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-location.xlsx
+++ b/StructureDefinition-cdm-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-location.xlsx
+++ b/StructureDefinition-cdm-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-location.xlsx
+++ b/StructureDefinition-cdm-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-location.xlsx
+++ b/StructureDefinition-cdm-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-location.xlsx
+++ b/StructureDefinition-cdm-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-location.xlsx
+++ b/StructureDefinition-cdm-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-location.xlsx
+++ b/StructureDefinition-cdm-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-location.xlsx
+++ b/StructureDefinition-cdm-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-location.xlsx
+++ b/StructureDefinition-cdm-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-location.xlsx
+++ b/StructureDefinition-cdm-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2809" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2809" uniqueCount="349">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -262,221 +262,225 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Location.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+</t>
+  </si>
+  <si>
+    <t>Metadata about a resource</t>
+  </si>
+  <si>
+    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Location.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Location.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Location.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Location.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>Location.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Location.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Location.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Unique code or number identifying the location to its users</t>
+  </si>
+  <si>
+    <t>Unique code or number identifying the location to its users.</t>
+  </si>
+  <si>
+    <t>Organization label locations in registries, need to keep track of those.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:type}
+</t>
+  </si>
+  <si>
+    <t>Slice based on entry system</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Location.identifier.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Location.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
-</t>
-  </si>
-  <si>
-    <t>Metadata about a resource</t>
-  </si>
-  <si>
-    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Location.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Location.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Location.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Location.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>Location.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Location.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Location.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Unique code or number identifying the location to its users</t>
-  </si>
-  <si>
-    <t>Unique code or number identifying the location to its users.</t>
-  </si>
-  <si>
-    <t>Organization label locations in registries, need to keep track of those.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:type}
-</t>
-  </si>
-  <si>
-    <t>Slice based on entry system</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Location.identifier.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -2642,13 +2646,13 @@
         <v>72</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2699,7 +2703,7 @@
         <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>73</v>
@@ -2714,7 +2718,7 @@
         <v>72</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>72</v>
@@ -2722,7 +2726,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2751,7 +2755,7 @@
         <v>128</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M13" t="s" s="2">
         <v>130</v>
@@ -2792,10 +2796,10 @@
         <v>72</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>72</v>
@@ -2804,7 +2808,7 @@
         <v>145</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>73</v>
@@ -2819,7 +2823,7 @@
         <v>132</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>72</v>
@@ -2827,7 +2831,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2853,16 +2857,16 @@
         <v>102</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>72</v>
@@ -2887,13 +2891,13 @@
         <v>72</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>72</v>
@@ -2911,7 +2915,7 @@
         <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>73</v>
@@ -2926,7 +2930,7 @@
         <v>93</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>72</v>
@@ -2934,7 +2938,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2957,19 +2961,19 @@
         <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>72</v>
@@ -2994,11 +2998,11 @@
         <v>72</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>72</v>
@@ -3016,7 +3020,7 @@
         <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>73</v>
@@ -3031,7 +3035,7 @@
         <v>93</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>72</v>
@@ -3039,7 +3043,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3065,16 +3069,16 @@
         <v>96</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>72</v>
@@ -3087,7 +3091,7 @@
         <v>72</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>72</v>
@@ -3123,7 +3127,7 @@
         <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>73</v>
@@ -3138,7 +3142,7 @@
         <v>93</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>72</v>
@@ -3146,7 +3150,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3169,16 +3173,16 @@
         <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3192,7 +3196,7 @@
         <v>72</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>72</v>
@@ -3228,7 +3232,7 @@
         <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>73</v>
@@ -3243,7 +3247,7 @@
         <v>93</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>72</v>
@@ -3251,7 +3255,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3274,13 +3278,13 @@
         <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3331,7 +3335,7 @@
         <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>73</v>
@@ -3346,7 +3350,7 @@
         <v>93</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>72</v>
@@ -3354,7 +3358,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3377,16 +3381,16 @@
         <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3436,7 +3440,7 @@
         <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>73</v>
@@ -3451,7 +3455,7 @@
         <v>93</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>72</v>
@@ -3462,7 +3466,7 @@
         <v>138</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>72</v>
@@ -3589,13 +3593,13 @@
         <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3646,7 +3650,7 @@
         <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>73</v>
@@ -3661,7 +3665,7 @@
         <v>72</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>72</v>
@@ -3669,7 +3673,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3698,7 +3702,7 @@
         <v>128</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>130</v>
@@ -3739,10 +3743,10 @@
         <v>72</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>72</v>
@@ -3751,7 +3755,7 @@
         <v>145</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>73</v>
@@ -3766,7 +3770,7 @@
         <v>132</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>72</v>
@@ -3774,7 +3778,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3800,16 +3804,16 @@
         <v>102</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>72</v>
@@ -3819,7 +3823,7 @@
         <v>72</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>72</v>
@@ -3834,13 +3838,13 @@
         <v>72</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>72</v>
@@ -3858,7 +3862,7 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>73</v>
@@ -3873,7 +3877,7 @@
         <v>93</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>72</v>
@@ -3881,7 +3885,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3904,19 +3908,19 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>72</v>
@@ -3926,7 +3930,7 @@
         <v>72</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>72</v>
@@ -3941,13 +3945,13 @@
         <v>72</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>72</v>
@@ -3965,7 +3969,7 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>73</v>
@@ -3980,7 +3984,7 @@
         <v>93</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>72</v>
@@ -3988,7 +3992,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4014,16 +4018,16 @@
         <v>96</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>72</v>
@@ -4036,7 +4040,7 @@
         <v>72</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>72</v>
@@ -4072,7 +4076,7 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>73</v>
@@ -4087,7 +4091,7 @@
         <v>93</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>72</v>
@@ -4095,7 +4099,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4118,16 +4122,16 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4141,7 +4145,7 @@
         <v>72</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>72</v>
@@ -4177,7 +4181,7 @@
         <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>73</v>
@@ -4192,7 +4196,7 @@
         <v>93</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>72</v>
@@ -4200,7 +4204,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4223,13 +4227,13 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4280,7 +4284,7 @@
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>73</v>
@@ -4295,7 +4299,7 @@
         <v>93</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>72</v>
@@ -4303,7 +4307,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4326,16 +4330,16 @@
         <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4385,7 +4389,7 @@
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>73</v>
@@ -4400,7 +4404,7 @@
         <v>93</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>72</v>
@@ -4411,7 +4415,7 @@
         <v>138</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>72</v>
@@ -4538,13 +4542,13 @@
         <v>72</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4595,7 +4599,7 @@
         <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>73</v>
@@ -4610,7 +4614,7 @@
         <v>72</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>72</v>
@@ -4618,7 +4622,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4647,7 +4651,7 @@
         <v>128</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>130</v>
@@ -4688,10 +4692,10 @@
         <v>72</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>72</v>
@@ -4700,7 +4704,7 @@
         <v>145</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>73</v>
@@ -4715,7 +4719,7 @@
         <v>132</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>72</v>
@@ -4723,7 +4727,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4749,16 +4753,16 @@
         <v>102</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>72</v>
@@ -4768,7 +4772,7 @@
         <v>72</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>72</v>
@@ -4783,13 +4787,13 @@
         <v>72</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>72</v>
@@ -4807,7 +4811,7 @@
         <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>73</v>
@@ -4822,7 +4826,7 @@
         <v>93</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>72</v>
@@ -4830,7 +4834,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4853,19 +4857,19 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>72</v>
@@ -4875,7 +4879,7 @@
         <v>72</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>72</v>
@@ -4890,13 +4894,13 @@
         <v>72</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>72</v>
@@ -4914,7 +4918,7 @@
         <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>73</v>
@@ -4929,7 +4933,7 @@
         <v>93</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>72</v>
@@ -4937,7 +4941,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4963,16 +4967,16 @@
         <v>96</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>72</v>
@@ -4985,7 +4989,7 @@
         <v>72</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>72</v>
@@ -5021,7 +5025,7 @@
         <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>73</v>
@@ -5036,7 +5040,7 @@
         <v>93</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>72</v>
@@ -5044,7 +5048,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5067,16 +5071,16 @@
         <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5090,7 +5094,7 @@
         <v>72</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>72</v>
@@ -5126,7 +5130,7 @@
         <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>73</v>
@@ -5141,7 +5145,7 @@
         <v>93</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>72</v>
@@ -5149,7 +5153,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5172,13 +5176,13 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5229,7 +5233,7 @@
         <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>73</v>
@@ -5244,7 +5248,7 @@
         <v>93</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>72</v>
@@ -5252,7 +5256,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5275,16 +5279,16 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5334,7 +5338,7 @@
         <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>73</v>
@@ -5349,7 +5353,7 @@
         <v>93</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>72</v>
@@ -5360,7 +5364,7 @@
         <v>138</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>72</v>
@@ -5487,13 +5491,13 @@
         <v>72</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5544,7 +5548,7 @@
         <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>73</v>
@@ -5559,7 +5563,7 @@
         <v>72</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>72</v>
@@ -5567,7 +5571,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5596,7 +5600,7 @@
         <v>128</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>130</v>
@@ -5637,10 +5641,10 @@
         <v>72</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>72</v>
@@ -5649,7 +5653,7 @@
         <v>145</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>73</v>
@@ -5664,7 +5668,7 @@
         <v>132</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>72</v>
@@ -5672,7 +5676,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5698,16 +5702,16 @@
         <v>102</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>72</v>
@@ -5717,7 +5721,7 @@
         <v>72</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>72</v>
@@ -5732,13 +5736,13 @@
         <v>72</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>72</v>
@@ -5756,7 +5760,7 @@
         <v>72</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>73</v>
@@ -5771,7 +5775,7 @@
         <v>93</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>72</v>
@@ -5779,7 +5783,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5802,19 +5806,19 @@
         <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>72</v>
@@ -5824,7 +5828,7 @@
         <v>72</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S42" t="s" s="2">
         <v>72</v>
@@ -5839,13 +5843,13 @@
         <v>72</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>72</v>
@@ -5863,7 +5867,7 @@
         <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>73</v>
@@ -5878,7 +5882,7 @@
         <v>93</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>72</v>
@@ -5886,7 +5890,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5912,16 +5916,16 @@
         <v>96</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>72</v>
@@ -5931,10 +5935,10 @@
         <v>72</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>72</v>
@@ -5970,7 +5974,7 @@
         <v>72</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>73</v>
@@ -5985,7 +5989,7 @@
         <v>93</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>72</v>
@@ -5993,7 +5997,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6016,16 +6020,16 @@
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6039,7 +6043,7 @@
         <v>72</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>72</v>
@@ -6075,7 +6079,7 @@
         <v>72</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>73</v>
@@ -6090,7 +6094,7 @@
         <v>93</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>72</v>
@@ -6098,7 +6102,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6121,13 +6125,13 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6178,7 +6182,7 @@
         <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>73</v>
@@ -6193,7 +6197,7 @@
         <v>93</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>72</v>
@@ -6201,7 +6205,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6224,16 +6228,16 @@
         <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6283,7 +6287,7 @@
         <v>72</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>73</v>
@@ -6298,7 +6302,7 @@
         <v>93</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>72</v>
@@ -6309,7 +6313,7 @@
         <v>138</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>72</v>
@@ -6436,13 +6440,13 @@
         <v>72</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6493,7 +6497,7 @@
         <v>72</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>73</v>
@@ -6508,7 +6512,7 @@
         <v>72</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>72</v>
@@ -6516,7 +6520,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6545,7 +6549,7 @@
         <v>128</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>130</v>
@@ -6586,10 +6590,10 @@
         <v>72</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>72</v>
@@ -6598,7 +6602,7 @@
         <v>145</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>73</v>
@@ -6613,7 +6617,7 @@
         <v>132</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>72</v>
@@ -6621,7 +6625,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6647,16 +6651,16 @@
         <v>102</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>72</v>
@@ -6666,7 +6670,7 @@
         <v>72</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>72</v>
@@ -6681,13 +6685,13 @@
         <v>72</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>72</v>
@@ -6705,7 +6709,7 @@
         <v>72</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>73</v>
@@ -6720,7 +6724,7 @@
         <v>93</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>72</v>
@@ -6728,7 +6732,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6751,19 +6755,19 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>72</v>
@@ -6773,7 +6777,7 @@
         <v>72</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>72</v>
@@ -6788,13 +6792,13 @@
         <v>72</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>72</v>
@@ -6812,7 +6816,7 @@
         <v>72</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>73</v>
@@ -6827,7 +6831,7 @@
         <v>93</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>72</v>
@@ -6835,7 +6839,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6861,16 +6865,16 @@
         <v>96</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>72</v>
@@ -6883,7 +6887,7 @@
         <v>72</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>72</v>
@@ -6919,7 +6923,7 @@
         <v>72</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>73</v>
@@ -6934,7 +6938,7 @@
         <v>93</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>72</v>
@@ -6942,7 +6946,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6965,16 +6969,16 @@
         <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -6988,7 +6992,7 @@
         <v>72</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>72</v>
@@ -7024,7 +7028,7 @@
         <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>73</v>
@@ -7039,7 +7043,7 @@
         <v>93</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>72</v>
@@ -7047,7 +7051,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7070,13 +7074,13 @@
         <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7127,7 +7131,7 @@
         <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>73</v>
@@ -7142,7 +7146,7 @@
         <v>93</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>72</v>
@@ -7150,7 +7154,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7173,16 +7177,16 @@
         <v>81</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7232,7 +7236,7 @@
         <v>72</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>73</v>
@@ -7247,7 +7251,7 @@
         <v>93</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>72</v>
@@ -7255,7 +7259,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7281,10 +7285,10 @@
         <v>102</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7311,13 +7315,13 @@
         <v>72</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>72</v>
@@ -7335,7 +7339,7 @@
         <v>72</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>73</v>
@@ -7350,15 +7354,15 @@
         <v>93</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7381,13 +7385,13 @@
         <v>81</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7417,10 +7421,10 @@
         <v>106</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>72</v>
@@ -7438,7 +7442,7 @@
         <v>72</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>73</v>
@@ -7453,15 +7457,15 @@
         <v>93</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7484,16 +7488,16 @@
         <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -7543,7 +7547,7 @@
         <v>72</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>73</v>
@@ -7558,7 +7562,7 @@
         <v>93</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>72</v>
@@ -7566,7 +7570,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7589,19 +7593,19 @@
         <v>72</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>72</v>
@@ -7650,7 +7654,7 @@
         <v>72</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>73</v>
@@ -7665,7 +7669,7 @@
         <v>93</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>72</v>
@@ -7673,7 +7677,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7696,17 +7700,17 @@
         <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>72</v>
@@ -7755,7 +7759,7 @@
         <v>72</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>73</v>
@@ -7770,7 +7774,7 @@
         <v>93</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>72</v>
@@ -7778,7 +7782,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7804,16 +7808,16 @@
         <v>102</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>72</v>
@@ -7838,13 +7842,13 @@
         <v>72</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>72</v>
@@ -7862,7 +7866,7 @@
         <v>72</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>73</v>
@@ -7877,15 +7881,15 @@
         <v>93</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7908,13 +7912,13 @@
         <v>81</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -7941,11 +7945,11 @@
         <v>72</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X62" s="2"/>
       <c r="Y62" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>72</v>
@@ -7963,7 +7967,7 @@
         <v>72</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>73</v>
@@ -7978,15 +7982,15 @@
         <v>93</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8009,13 +8013,13 @@
         <v>72</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8066,7 +8070,7 @@
         <v>72</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>73</v>
@@ -8078,10 +8082,10 @@
         <v>92</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>72</v>
@@ -8089,7 +8093,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8112,19 +8116,19 @@
         <v>72</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>72</v>
@@ -8173,7 +8177,7 @@
         <v>72</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>73</v>
@@ -8188,7 +8192,7 @@
         <v>93</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>72</v>
@@ -8196,7 +8200,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8219,17 +8223,17 @@
         <v>81</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>72</v>
@@ -8254,13 +8258,13 @@
         <v>72</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>72</v>
@@ -8278,7 +8282,7 @@
         <v>72</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>73</v>
@@ -8293,15 +8297,15 @@
         <v>93</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8324,17 +8328,17 @@
         <v>72</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>72</v>
@@ -8383,7 +8387,7 @@
         <v>72</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>73</v>
@@ -8398,7 +8402,7 @@
         <v>93</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>72</v>
@@ -8406,7 +8410,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8429,13 +8433,13 @@
         <v>72</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8486,7 +8490,7 @@
         <v>72</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>73</v>
@@ -8501,7 +8505,7 @@
         <v>72</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>72</v>
@@ -8509,7 +8513,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8538,7 +8542,7 @@
         <v>128</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>130</v>
@@ -8591,7 +8595,7 @@
         <v>72</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>73</v>
@@ -8606,7 +8610,7 @@
         <v>132</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>72</v>
@@ -8614,11 +8618,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -8640,10 +8644,10 @@
         <v>127</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>130</v>
@@ -8698,7 +8702,7 @@
         <v>72</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>73</v>
@@ -8721,7 +8725,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8744,13 +8748,13 @@
         <v>72</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8801,7 +8805,7 @@
         <v>72</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>80</v>
@@ -8816,7 +8820,7 @@
         <v>93</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>72</v>
@@ -8824,7 +8828,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8847,13 +8851,13 @@
         <v>72</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -8904,7 +8908,7 @@
         <v>72</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>80</v>
@@ -8919,7 +8923,7 @@
         <v>93</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>72</v>
@@ -8927,7 +8931,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -8950,13 +8954,13 @@
         <v>72</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9007,7 +9011,7 @@
         <v>72</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>73</v>
@@ -9022,7 +9026,7 @@
         <v>93</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>72</v>
@@ -9030,7 +9034,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9053,19 +9057,19 @@
         <v>81</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>72</v>
@@ -9114,7 +9118,7 @@
         <v>72</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>73</v>
@@ -9129,7 +9133,7 @@
         <v>93</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>72</v>
@@ -9137,7 +9141,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9160,17 +9164,17 @@
         <v>72</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>72</v>
@@ -9219,7 +9223,7 @@
         <v>72</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>73</v>
@@ -9234,7 +9238,7 @@
         <v>93</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>72</v>
@@ -9242,7 +9246,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9265,16 +9269,16 @@
         <v>72</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -9324,7 +9328,7 @@
         <v>72</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>73</v>
@@ -9339,7 +9343,7 @@
         <v>93</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>72</v>
@@ -9347,7 +9351,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9370,13 +9374,13 @@
         <v>72</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9427,7 +9431,7 @@
         <v>72</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>73</v>
@@ -9442,7 +9446,7 @@
         <v>72</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>72</v>
@@ -9450,7 +9454,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9479,7 +9483,7 @@
         <v>128</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>130</v>
@@ -9532,7 +9536,7 @@
         <v>72</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>73</v>
@@ -9547,7 +9551,7 @@
         <v>132</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>72</v>
@@ -9555,11 +9559,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -9581,10 +9585,10 @@
         <v>127</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>130</v>
@@ -9639,7 +9643,7 @@
         <v>72</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>73</v>
@@ -9662,7 +9666,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9688,10 +9692,10 @@
         <v>102</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -9718,13 +9722,13 @@
         <v>72</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>72</v>
@@ -9742,7 +9746,7 @@
         <v>72</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>73</v>
@@ -9757,7 +9761,7 @@
         <v>93</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>72</v>
@@ -9765,7 +9769,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -9788,13 +9792,13 @@
         <v>72</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -9845,7 +9849,7 @@
         <v>72</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>73</v>
@@ -9860,7 +9864,7 @@
         <v>93</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>72</v>
@@ -9868,7 +9872,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -9891,13 +9895,13 @@
         <v>72</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -9948,7 +9952,7 @@
         <v>72</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>73</v>
@@ -9963,7 +9967,7 @@
         <v>93</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>72</v>
@@ -9971,7 +9975,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -9994,13 +9998,13 @@
         <v>72</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10051,7 +10055,7 @@
         <v>72</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>73</v>
@@ -10066,7 +10070,7 @@
         <v>93</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>72</v>
@@ -10074,7 +10078,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10097,13 +10101,13 @@
         <v>72</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10154,7 +10158,7 @@
         <v>72</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>73</v>
@@ -10169,7 +10173,7 @@
         <v>93</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>72</v>
@@ -10177,7 +10181,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10200,17 +10204,17 @@
         <v>72</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>72</v>
@@ -10259,7 +10263,7 @@
         <v>72</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>73</v>
@@ -10274,7 +10278,7 @@
         <v>93</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>72</v>

--- a/StructureDefinition-cdm-location.xlsx
+++ b/StructureDefinition-cdm-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2809" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2809" uniqueCount="348">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/cdm-location</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/cdm-location</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>7.0.0</t>
+    <t>8.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:11:15+00:00</t>
+    <t>2022-11-10T16:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Alvearie Team</t>
+    <t>LinuxForHealth Team</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Health Data Connect Common Data Model definition of what fields we currently define for a location</t>
+    <t>LinuxForHealth Common Data Model definition of what fields we currently define for a location</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -244,10 +244,6 @@
   </si>
   <si>
     <t>Details and position information for a physical place where services are provided and resources and participants may be stored, found, contained, or accommodated.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>.Role[classCode=SDLC]</t>
@@ -281,7 +277,7 @@
     <t>Location.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+    <t xml:space="preserve">Meta {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-meta}
 </t>
   </si>
   <si>
@@ -563,7 +559,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/identifier-type</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/identifier-type</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -663,7 +659,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://ibm.com/fhir/cdm/CodeSystem/identifier-type"/&gt;
+    &lt;system value="http://linuxforhealth.org/fhir/cdm/CodeSystem/identifier-type"/&gt;
     &lt;code value="SSRI"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -708,7 +704,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://ibm.com/fhir/cdm/CodeSystem/identifier-type"/&gt;
+    &lt;system value="http://linuxforhealth.org/fhir/cdm/CodeSystem/identifier-type"/&gt;
     &lt;code value="MDI"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -833,7 +829,7 @@
     <t>Indicates the type of function performed at the location.</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/service-delivery-location-type</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/service-delivery-location-type</t>
   </si>
   <si>
     <t>.code</t>
@@ -842,7 +838,7 @@
     <t>Location.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {http://ibm.com/fhir/cdm/StructureDefinition/cdm-contact-point}
+    <t xml:space="preserve">ContactPoint {http://linuxforhealth.org/fhir/cdm/StructureDefinition/cdm-contact-point}
 </t>
   </si>
   <si>
@@ -862,7 +858,7 @@
     <t>Location.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {http://ibm.com/fhir/cdm/StructureDefinition/cdm-address}
+    <t xml:space="preserve">Address {http://linuxforhealth.org/fhir/cdm/StructureDefinition/cdm-address}
 </t>
   </si>
   <si>
@@ -1445,7 +1441,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="59.5859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="68.00390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1667,10 +1663,10 @@
         <v>72</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>72</v>
@@ -1678,7 +1674,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1689,28 +1685,28 @@
         <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1760,13 +1756,13 @@
         <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>72</v>
@@ -1783,7 +1779,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1794,7 +1790,7 @@
         <v>73</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>72</v>
@@ -1806,13 +1802,13 @@
         <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1863,22 +1859,22 @@
         <v>72</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH4" t="s" s="2">
+      <c r="AI4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AI4" t="s" s="2">
+      <c r="AJ4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>72</v>
@@ -1886,7 +1882,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1897,28 +1893,28 @@
         <v>73</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1968,19 +1964,19 @@
         <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>72</v>
@@ -1991,7 +1987,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2002,7 +1998,7 @@
         <v>73</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>72</v>
@@ -2014,16 +2010,16 @@
         <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2049,43 +2045,43 @@
         <v>72</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>109</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>72</v>
@@ -2096,18 +2092,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>72</v>
@@ -2119,16 +2115,16 @@
         <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2178,22 +2174,22 @@
         <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>72</v>
@@ -2201,11 +2197,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2224,16 +2220,16 @@
         <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2283,7 +2279,7 @@
         <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>73</v>
@@ -2298,7 +2294,7 @@
         <v>72</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>72</v>
@@ -2306,11 +2302,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2329,16 +2325,16 @@
         <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2388,7 +2384,7 @@
         <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>73</v>
@@ -2400,10 +2396,10 @@
         <v>72</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>72</v>
@@ -2411,11 +2407,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2428,25 +2424,25 @@
         <v>72</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>72</v>
@@ -2495,7 +2491,7 @@
         <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>73</v>
@@ -2507,10 +2503,10 @@
         <v>72</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>72</v>
@@ -2518,7 +2514,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2526,7 +2522,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>74</v>
@@ -2538,20 +2534,20 @@
         <v>72</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>72</v>
@@ -2588,19 +2584,19 @@
         <v>72</v>
       </c>
       <c r="AA11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AB11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="AB11" t="s" s="2">
+      <c r="AC11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="AC11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>145</v>
-      </c>
       <c r="AE11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>73</v>
@@ -2612,18 +2608,18 @@
         <v>72</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2634,7 +2630,7 @@
         <v>73</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>72</v>
@@ -2646,13 +2642,13 @@
         <v>72</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2703,22 +2699,22 @@
         <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>72</v>
@@ -2726,11 +2722,11 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2749,16 +2745,16 @@
         <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2796,19 +2792,19 @@
         <v>72</v>
       </c>
       <c r="AA13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AB13" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AB13" t="s" s="2">
+      <c r="AC13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AE13" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>73</v>
@@ -2820,10 +2816,10 @@
         <v>72</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>72</v>
@@ -2831,7 +2827,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2842,31 +2838,31 @@
         <v>73</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I14" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>72</v>
@@ -2891,46 +2887,46 @@
         <v>72</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE14" t="s" s="2">
+      <c r="AF14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>72</v>
@@ -2938,7 +2934,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2949,31 +2945,31 @@
         <v>73</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J15" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>72</v>
@@ -2998,44 +2994,44 @@
         <v>72</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>177</v>
-      </c>
       <c r="AF15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>72</v>
@@ -3043,7 +3039,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3051,34 +3047,34 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>72</v>
@@ -3091,58 +3087,58 @@
         <v>72</v>
       </c>
       <c r="S16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="T16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE16" t="s" s="2">
+      <c r="AF16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>72</v>
@@ -3150,7 +3146,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3158,31 +3154,31 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3196,58 +3192,58 @@
         <v>72</v>
       </c>
       <c r="S17" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="T17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE17" t="s" s="2">
+      <c r="AF17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>72</v>
@@ -3255,7 +3251,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3266,25 +3262,25 @@
         <v>73</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3335,22 +3331,22 @@
         <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>72</v>
@@ -3358,7 +3354,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3369,28 +3365,28 @@
         <v>73</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J19" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3440,22 +3436,22 @@
         <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>72</v>
@@ -3463,10 +3459,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>72</v>
@@ -3476,29 +3472,29 @@
         <v>73</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J20" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>72</v>
@@ -3547,7 +3543,7 @@
         <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>73</v>
@@ -3559,18 +3555,18 @@
         <v>72</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>147</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3581,7 +3577,7 @@
         <v>73</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>72</v>
@@ -3593,13 +3589,13 @@
         <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3650,22 +3646,22 @@
         <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>72</v>
@@ -3673,11 +3669,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3696,16 +3692,16 @@
         <v>72</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K22" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="L22" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3743,19 +3739,19 @@
         <v>72</v>
       </c>
       <c r="AA22" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AB22" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AB22" t="s" s="2">
+      <c r="AC22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>73</v>
@@ -3767,10 +3763,10 @@
         <v>72</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>72</v>
@@ -3778,7 +3774,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3789,31 +3785,31 @@
         <v>73</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H23" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I23" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>72</v>
@@ -3823,7 +3819,7 @@
         <v>72</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>72</v>
@@ -3838,46 +3834,46 @@
         <v>72</v>
       </c>
       <c r="W23" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="X23" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="X23" t="s" s="2">
+      <c r="Y23" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Y23" t="s" s="2">
+      <c r="Z23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE23" t="s" s="2">
+      <c r="AF23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>72</v>
@@ -3885,7 +3881,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3893,34 +3889,34 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J24" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>72</v>
@@ -3930,29 +3926,29 @@
         <v>72</v>
       </c>
       <c r="R24" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="X24" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="S24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="X24" t="s" s="2">
+      <c r="Y24" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="Z24" t="s" s="2">
         <v>72</v>
       </c>
@@ -3969,22 +3965,22 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>72</v>
@@ -3992,7 +3988,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4003,31 +3999,31 @@
         <v>73</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>72</v>
@@ -4040,58 +4036,58 @@
         <v>72</v>
       </c>
       <c r="S25" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="T25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE25" t="s" s="2">
+      <c r="AF25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>72</v>
@@ -4099,7 +4095,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4110,28 +4106,28 @@
         <v>73</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4145,58 +4141,58 @@
         <v>72</v>
       </c>
       <c r="S26" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="T26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE26" t="s" s="2">
+      <c r="AF26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>72</v>
@@ -4204,7 +4200,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4215,25 +4211,25 @@
         <v>73</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J27" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4284,22 +4280,22 @@
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>72</v>
@@ -4307,7 +4303,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4318,28 +4314,28 @@
         <v>73</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J28" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4389,22 +4385,22 @@
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>72</v>
@@ -4412,10 +4408,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>72</v>
@@ -4425,29 +4421,29 @@
         <v>73</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J29" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>72</v>
@@ -4496,7 +4492,7 @@
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>73</v>
@@ -4508,18 +4504,18 @@
         <v>72</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>147</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4530,7 +4526,7 @@
         <v>73</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>72</v>
@@ -4542,13 +4538,13 @@
         <v>72</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4599,22 +4595,22 @@
         <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>72</v>
@@ -4622,11 +4618,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4645,16 +4641,16 @@
         <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K31" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="L31" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4692,19 +4688,19 @@
         <v>72</v>
       </c>
       <c r="AA31" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AB31" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AB31" t="s" s="2">
+      <c r="AC31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>73</v>
@@ -4716,10 +4712,10 @@
         <v>72</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>72</v>
@@ -4727,7 +4723,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4738,31 +4734,31 @@
         <v>73</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H32" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I32" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>72</v>
@@ -4772,7 +4768,7 @@
         <v>72</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>72</v>
@@ -4787,46 +4783,46 @@
         <v>72</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="X32" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="X32" t="s" s="2">
+      <c r="Y32" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Y32" t="s" s="2">
+      <c r="Z32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE32" t="s" s="2">
+      <c r="AF32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>72</v>
@@ -4834,7 +4830,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4842,34 +4838,34 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J33" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>72</v>
@@ -4879,7 +4875,7 @@
         <v>72</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>72</v>
@@ -4894,14 +4890,14 @@
         <v>72</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>72</v>
       </c>
@@ -4918,22 +4914,22 @@
         <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>72</v>
@@ -4941,7 +4937,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4952,31 +4948,31 @@
         <v>73</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>72</v>
@@ -4989,58 +4985,58 @@
         <v>72</v>
       </c>
       <c r="S34" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="T34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE34" t="s" s="2">
+      <c r="AF34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>72</v>
@@ -5048,7 +5044,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5059,28 +5055,28 @@
         <v>73</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5094,58 +5090,58 @@
         <v>72</v>
       </c>
       <c r="S35" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE35" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="T35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE35" t="s" s="2">
+      <c r="AF35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>72</v>
@@ -5153,7 +5149,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5164,25 +5160,25 @@
         <v>73</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J36" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5233,22 +5229,22 @@
         <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>72</v>
@@ -5256,7 +5252,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5267,28 +5263,28 @@
         <v>73</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J37" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5338,22 +5334,22 @@
         <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>72</v>
@@ -5361,10 +5357,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>72</v>
@@ -5374,29 +5370,29 @@
         <v>73</v>
       </c>
       <c r="F38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J38" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>72</v>
@@ -5445,7 +5441,7 @@
         <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>73</v>
@@ -5457,18 +5453,18 @@
         <v>72</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>147</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5479,7 +5475,7 @@
         <v>73</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>72</v>
@@ -5491,13 +5487,13 @@
         <v>72</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5548,22 +5544,22 @@
         <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>72</v>
@@ -5571,11 +5567,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5594,16 +5590,16 @@
         <v>72</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K40" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="L40" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5641,19 +5637,19 @@
         <v>72</v>
       </c>
       <c r="AA40" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AB40" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AB40" t="s" s="2">
+      <c r="AC40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AE40" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>73</v>
@@ -5665,10 +5661,10 @@
         <v>72</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>72</v>
@@ -5676,7 +5672,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5687,31 +5683,31 @@
         <v>73</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H41" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I41" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>72</v>
@@ -5721,7 +5717,7 @@
         <v>72</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>72</v>
@@ -5736,46 +5732,46 @@
         <v>72</v>
       </c>
       <c r="W41" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="X41" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="X41" t="s" s="2">
+      <c r="Y41" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Y41" t="s" s="2">
+      <c r="Z41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE41" t="s" s="2">
+      <c r="AF41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>72</v>
@@ -5783,7 +5779,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5791,34 +5787,34 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J42" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>72</v>
@@ -5828,7 +5824,7 @@
         <v>72</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S42" t="s" s="2">
         <v>72</v>
@@ -5843,14 +5839,14 @@
         <v>72</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="Z42" t="s" s="2">
         <v>72</v>
       </c>
@@ -5867,22 +5863,22 @@
         <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>72</v>
@@ -5890,7 +5886,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5901,31 +5897,31 @@
         <v>73</v>
       </c>
       <c r="F43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J43" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>72</v>
@@ -5935,61 +5931,61 @@
         <v>72</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S43" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE43" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="T43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE43" t="s" s="2">
+      <c r="AF43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>72</v>
@@ -5997,7 +5993,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6008,28 +6004,28 @@
         <v>73</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6043,58 +6039,58 @@
         <v>72</v>
       </c>
       <c r="S44" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE44" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="T44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE44" t="s" s="2">
+      <c r="AF44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>72</v>
@@ -6102,7 +6098,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6113,25 +6109,25 @@
         <v>73</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J45" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6182,22 +6178,22 @@
         <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>72</v>
@@ -6205,7 +6201,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6216,28 +6212,28 @@
         <v>73</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J46" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6287,22 +6283,22 @@
         <v>72</v>
       </c>
       <c r="AE46" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>72</v>
@@ -6310,10 +6306,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>72</v>
@@ -6323,29 +6319,29 @@
         <v>73</v>
       </c>
       <c r="F47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J47" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>72</v>
@@ -6394,7 +6390,7 @@
         <v>72</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>73</v>
@@ -6406,18 +6402,18 @@
         <v>72</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>147</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6428,7 +6424,7 @@
         <v>73</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>72</v>
@@ -6440,13 +6436,13 @@
         <v>72</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6497,22 +6493,22 @@
         <v>72</v>
       </c>
       <c r="AE48" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>72</v>
@@ -6520,11 +6516,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6543,16 +6539,16 @@
         <v>72</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K49" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="L49" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6590,19 +6586,19 @@
         <v>72</v>
       </c>
       <c r="AA49" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AB49" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AB49" t="s" s="2">
+      <c r="AC49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AE49" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>73</v>
@@ -6614,10 +6610,10 @@
         <v>72</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>72</v>
@@ -6625,7 +6621,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6636,31 +6632,31 @@
         <v>73</v>
       </c>
       <c r="F50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H50" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I50" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>72</v>
@@ -6670,7 +6666,7 @@
         <v>72</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>72</v>
@@ -6685,46 +6681,46 @@
         <v>72</v>
       </c>
       <c r="W50" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="X50" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="X50" t="s" s="2">
+      <c r="Y50" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Y50" t="s" s="2">
+      <c r="Z50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE50" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE50" t="s" s="2">
+      <c r="AF50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>72</v>
@@ -6732,7 +6728,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6740,34 +6736,34 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J51" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>72</v>
@@ -6777,7 +6773,7 @@
         <v>72</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>72</v>
@@ -6792,14 +6788,14 @@
         <v>72</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="Z51" t="s" s="2">
         <v>72</v>
       </c>
@@ -6816,22 +6812,22 @@
         <v>72</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>72</v>
@@ -6839,7 +6835,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6850,31 +6846,31 @@
         <v>73</v>
       </c>
       <c r="F52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I52" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J52" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>72</v>
@@ -6887,58 +6883,58 @@
         <v>72</v>
       </c>
       <c r="S52" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE52" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="T52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE52" t="s" s="2">
+      <c r="AF52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>72</v>
@@ -6946,7 +6942,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6957,28 +6953,28 @@
         <v>73</v>
       </c>
       <c r="F53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J53" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -6992,58 +6988,58 @@
         <v>72</v>
       </c>
       <c r="S53" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE53" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="T53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE53" t="s" s="2">
+      <c r="AF53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>72</v>
@@ -7051,7 +7047,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7062,25 +7058,25 @@
         <v>73</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J54" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7131,22 +7127,22 @@
         <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>72</v>
@@ -7154,7 +7150,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7165,28 +7161,28 @@
         <v>73</v>
       </c>
       <c r="F55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J55" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7236,22 +7232,22 @@
         <v>72</v>
       </c>
       <c r="AE55" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>72</v>
@@ -7259,7 +7255,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7270,25 +7266,25 @@
         <v>73</v>
       </c>
       <c r="F56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H56" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I56" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7315,54 +7311,54 @@
         <v>72</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X56" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="Y56" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="Y56" t="s" s="2">
+      <c r="Z56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="Z56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
+      <c r="AK56" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>225</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7373,25 +7369,25 @@
         <v>73</v>
       </c>
       <c r="F57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I57" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J57" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7418,14 +7414,14 @@
         <v>72</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="Y57" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="Y57" t="s" s="2">
-        <v>231</v>
-      </c>
       <c r="Z57" t="s" s="2">
         <v>72</v>
       </c>
@@ -7442,30 +7438,30 @@
         <v>72</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7473,31 +7469,31 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I58" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J58" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -7547,22 +7543,22 @@
         <v>72</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>72</v>
@@ -7570,7 +7566,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7593,19 +7589,19 @@
         <v>72</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>72</v>
@@ -7654,7 +7650,7 @@
         <v>72</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>73</v>
@@ -7666,10 +7662,10 @@
         <v>72</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>72</v>
@@ -7677,7 +7673,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7688,29 +7684,29 @@
         <v>73</v>
       </c>
       <c r="F60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I60" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J60" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>72</v>
@@ -7759,22 +7755,22 @@
         <v>72</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>72</v>
@@ -7782,7 +7778,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7793,31 +7789,31 @@
         <v>73</v>
       </c>
       <c r="F61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I61" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J61" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>72</v>
@@ -7842,54 +7838,54 @@
         <v>72</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Y61" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
+      <c r="AK61" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>254</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7909,16 +7905,16 @@
         <v>72</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -7945,11 +7941,11 @@
         <v>72</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X62" s="2"/>
       <c r="Y62" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>72</v>
@@ -7967,7 +7963,7 @@
         <v>72</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>73</v>
@@ -7979,18 +7975,18 @@
         <v>72</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8013,13 +8009,13 @@
         <v>72</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8070,7 +8066,7 @@
         <v>72</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>73</v>
@@ -8079,13 +8075,13 @@
         <v>74</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI63" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>72</v>
@@ -8093,7 +8089,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8104,7 +8100,7 @@
         <v>73</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>72</v>
@@ -8116,19 +8112,19 @@
         <v>72</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>72</v>
@@ -8177,22 +8173,22 @@
         <v>72</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI64" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AI64" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="AJ64" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>72</v>
@@ -8200,7 +8196,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8211,29 +8207,29 @@
         <v>73</v>
       </c>
       <c r="F65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I65" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G65" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J65" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>72</v>
@@ -8258,54 +8254,54 @@
         <v>72</v>
       </c>
       <c r="W65" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="X65" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="X65" t="s" s="2">
+      <c r="Y65" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="Y65" t="s" s="2">
+      <c r="Z65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="Z65" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>280</v>
-      </c>
       <c r="AK65" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8316,7 +8312,7 @@
         <v>73</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>72</v>
@@ -8328,17 +8324,17 @@
         <v>72</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>72</v>
@@ -8387,22 +8383,22 @@
         <v>72</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>72</v>
@@ -8410,7 +8406,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8421,7 +8417,7 @@
         <v>73</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>72</v>
@@ -8433,13 +8429,13 @@
         <v>72</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8490,22 +8486,22 @@
         <v>72</v>
       </c>
       <c r="AE67" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>72</v>
@@ -8513,11 +8509,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -8536,16 +8532,16 @@
         <v>72</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K68" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="L68" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -8595,7 +8591,7 @@
         <v>72</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>73</v>
@@ -8607,10 +8603,10 @@
         <v>72</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>72</v>
@@ -8618,11 +8614,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -8635,25 +8631,25 @@
         <v>72</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L69" t="s" s="2">
-        <v>292</v>
-      </c>
       <c r="M69" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>72</v>
@@ -8702,7 +8698,7 @@
         <v>72</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>73</v>
@@ -8714,10 +8710,10 @@
         <v>72</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>72</v>
@@ -8725,7 +8721,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8733,10 +8729,10 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>72</v>
@@ -8748,13 +8744,13 @@
         <v>72</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8805,22 +8801,22 @@
         <v>72</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>72</v>
@@ -8828,7 +8824,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8836,10 +8832,10 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>72</v>
@@ -8851,13 +8847,13 @@
         <v>72</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -8908,22 +8904,22 @@
         <v>72</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>72</v>
@@ -8931,7 +8927,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -8942,7 +8938,7 @@
         <v>73</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>72</v>
@@ -8954,13 +8950,13 @@
         <v>72</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9011,22 +9007,22 @@
         <v>72</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>72</v>
@@ -9034,7 +9030,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9045,31 +9041,31 @@
         <v>73</v>
       </c>
       <c r="F73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I73" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G73" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J73" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>72</v>
@@ -9118,22 +9114,22 @@
         <v>72</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>72</v>
@@ -9141,7 +9137,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9152,7 +9148,7 @@
         <v>73</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>72</v>
@@ -9164,17 +9160,17 @@
         <v>72</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>72</v>
@@ -9223,22 +9219,22 @@
         <v>72</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>72</v>
@@ -9246,7 +9242,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9269,16 +9265,16 @@
         <v>72</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -9328,7 +9324,7 @@
         <v>72</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>73</v>
@@ -9340,10 +9336,10 @@
         <v>72</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>72</v>
@@ -9351,7 +9347,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9362,7 +9358,7 @@
         <v>73</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>72</v>
@@ -9374,13 +9370,13 @@
         <v>72</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K76" t="s" s="2">
+      <c r="L76" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9431,22 +9427,22 @@
         <v>72</v>
       </c>
       <c r="AE76" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>72</v>
@@ -9454,11 +9450,11 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -9477,16 +9473,16 @@
         <v>72</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K77" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="L77" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -9536,7 +9532,7 @@
         <v>72</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>73</v>
@@ -9548,10 +9544,10 @@
         <v>72</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>72</v>
@@ -9559,11 +9555,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -9576,25 +9572,25 @@
         <v>72</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L78" t="s" s="2">
-        <v>292</v>
-      </c>
       <c r="M78" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>72</v>
@@ -9643,7 +9639,7 @@
         <v>72</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>73</v>
@@ -9655,10 +9651,10 @@
         <v>72</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>72</v>
@@ -9666,7 +9662,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9689,13 +9685,13 @@
         <v>72</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -9722,14 +9718,14 @@
         <v>72</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X79" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="Y79" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="Y79" t="s" s="2">
-        <v>329</v>
-      </c>
       <c r="Z79" t="s" s="2">
         <v>72</v>
       </c>
@@ -9746,7 +9742,7 @@
         <v>72</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>73</v>
@@ -9758,10 +9754,10 @@
         <v>72</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>72</v>
@@ -9769,7 +9765,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -9780,7 +9776,7 @@
         <v>73</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>72</v>
@@ -9792,13 +9788,13 @@
         <v>72</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="K80" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="K80" t="s" s="2">
+      <c r="L80" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -9849,22 +9845,22 @@
         <v>72</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>72</v>
@@ -9872,7 +9868,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -9883,7 +9879,7 @@
         <v>73</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>72</v>
@@ -9895,13 +9891,13 @@
         <v>72</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="L81" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -9952,22 +9948,22 @@
         <v>72</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>72</v>
@@ -9975,7 +9971,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -9986,7 +9982,7 @@
         <v>73</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>72</v>
@@ -9998,13 +9994,13 @@
         <v>72</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10055,22 +10051,22 @@
         <v>72</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>72</v>
@@ -10078,7 +10074,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10089,7 +10085,7 @@
         <v>73</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>72</v>
@@ -10101,13 +10097,13 @@
         <v>72</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10158,22 +10154,22 @@
         <v>72</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>72</v>
@@ -10181,7 +10177,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10204,17 +10200,17 @@
         <v>72</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="K84" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="K84" t="s" s="2">
+      <c r="L84" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>72</v>
@@ -10263,7 +10259,7 @@
         <v>72</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>73</v>
@@ -10275,10 +10271,10 @@
         <v>72</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>72</v>
